--- a/Data/Temp/USA_Black_List_Tracking_2021.xlsx
+++ b/Data/Temp/USA_Black_List_Tracking_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yazmin\Documents\UiPath\CinepolisUSA\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9675D29C-06D2-441E-947E-154382241A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46ABE0-0706-427E-A845-7978C44AE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2235" yWindow="690" windowWidth="16140" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
